--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_286.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_286.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1854395604395604</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G/3', 'D', 'G', 'D/3', 'E:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.045102, 12.823786)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(24.934603, 30.472562)]</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(114.52, 115.98)]</t>
+          <t>[('0:00:36.180000', '0:00:37.980000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08792372881355932</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[('0:01:05.382154', '0:01:14.101247')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:39.800000', '0:00:48.280000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4047619047619048</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1301075268817204</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5', 'E:maj6', 'C#:min7']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D', 'D/5', 'G:maj6/5', 'G:maj6/2']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.440395, 4.406553)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(90.564195, 95.556485)]</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[('0:00:09.740000', '0:00:27.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2116689280868385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A:min', 'A:min/b7']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(73.618888, 99.567188)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.767437, 21.242721)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.08, 74.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.94, 67.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
